--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/SOUTH_CAROLINA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/SOUTH_CAROLINA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C17">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C18">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C19">
@@ -701,7 +701,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C25">
@@ -753,7 +753,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C29">
@@ -779,7 +779,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C31">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1075,7 +1075,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C58">
@@ -1189,12 +1189,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C61">
@@ -1233,7 +1233,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C64">
@@ -1298,7 +1298,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C69">
@@ -1446,7 +1446,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C80">
@@ -1485,7 +1485,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C83">
@@ -1511,7 +1511,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C85">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C90">
@@ -1594,7 +1594,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C91">
@@ -1607,7 +1607,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C92">
@@ -1620,7 +1620,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C93">
@@ -1659,7 +1659,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C96">
@@ -1776,7 +1776,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C105">
@@ -1789,7 +1789,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C106">
@@ -1833,7 +1833,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C109">
@@ -1846,7 +1846,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C110">
@@ -1859,7 +1859,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C111">
@@ -1903,7 +1903,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C114">
@@ -1916,7 +1916,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C115">
@@ -2059,7 +2059,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C126">
@@ -2072,7 +2072,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C127">
@@ -2098,7 +2098,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C129">
@@ -2137,7 +2137,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C132">
@@ -2150,7 +2150,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C133">
@@ -2176,7 +2176,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C135">
@@ -2189,7 +2189,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C136">
@@ -2241,7 +2241,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C172">
@@ -2695,7 +2695,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C173">
@@ -2708,7 +2708,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C174">
@@ -2721,7 +2721,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C175">
@@ -3152,7 +3152,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C207">
@@ -3178,7 +3178,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C209">
@@ -3191,7 +3191,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C210">
@@ -3432,7 +3432,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3541,7 +3541,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C235">
@@ -3580,7 +3580,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C238">
@@ -3606,7 +3606,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C240">
@@ -3645,7 +3645,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C243">
@@ -3671,7 +3671,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C245">
@@ -3697,7 +3697,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C247">
@@ -3845,7 +3845,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C258">
@@ -3871,7 +3871,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C260">
@@ -3910,7 +3910,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C263">
@@ -3918,41 +3918,6 @@
       </c>
       <c r="D263">
         <v>1</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/SOUTH_CAROLINA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/SOUTH_CAROLINA_2024.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Candelaria</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Bejucal De Ocampo</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Benemérito De Las Américas</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Mitontic</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Ocozocoautla De Espinosa</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Salto De Agua</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>San Andrés Duraznal</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Simojovel</t>
@@ -816,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -829,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -855,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Chínipas</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -995,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1008,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1021,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1034,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1047,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1060,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1091,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1104,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1117,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1130,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1161,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1174,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1244,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -1283,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1296,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1309,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1322,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1335,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -1348,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Zinacantepec</t>
@@ -1361,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Zumpango</t>
@@ -1374,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1405,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1418,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1431,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>León</t>
@@ -1444,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -1457,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1470,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -1483,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -1496,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -1509,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1522,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -1535,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -1548,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -1561,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1592,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -1605,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -1618,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1631,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -1644,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -1657,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -1670,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -1683,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -1696,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -1709,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -1722,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -1735,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1748,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -1761,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -1774,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1787,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1800,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1831,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1844,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -1857,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1870,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1901,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Atotonilco El Alto</t>
@@ -1914,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -1927,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -1940,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1953,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1966,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Guachinango</t>
@@ -1979,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1992,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -2005,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -2018,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Mascota</t>
@@ -2031,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -2044,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Poncitlán</t>
@@ -2057,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -2070,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -2083,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -2096,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -2109,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Tecalitlán</t>
@@ -2122,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Tecolotlán</t>
@@ -2135,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -2148,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -2161,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -2174,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Unión De San Antonio</t>
@@ -2187,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Zacoalco De Torres</t>
@@ -2200,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -2213,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -2226,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2257,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -2270,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -2283,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Jacona</t>
@@ -2296,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -2309,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2322,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -2335,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -2348,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Purépero</t>
@@ -2361,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Senguio</t>
@@ -2374,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -2387,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2400,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -2413,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -2426,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -2439,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -2452,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -2465,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -2478,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2509,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -2522,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -2535,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -2548,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2579,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Compostela</t>
@@ -2592,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -2605,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -2618,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2649,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -2662,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2693,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Guevea De Humboldt</t>
@@ -2706,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -2719,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Huajuapan De León</t>
@@ -2732,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Magdalena Jaltepec</t>
@@ -2745,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -2758,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>San Juan Bautista Cuicatlán</t>
@@ -2771,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>San Lorenzo</t>
@@ -2784,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>San Lorenzo Texmelúcan</t>
@@ -2797,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -2810,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Santa María Huatulco</t>
@@ -2823,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -2836,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -2849,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -2862,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2893,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Aquixtla</t>
@@ -2906,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -2919,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -2932,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Coatzingo</t>
@@ -2945,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Nicolás Bravo</t>
@@ -2958,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Tenampulco</t>
@@ -2971,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Tilapa</t>
@@ -2984,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -2997,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -3010,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -3023,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -3036,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -3049,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -3062,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3093,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -3106,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3137,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -3150,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -3163,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -3176,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Villa De Arista</t>
@@ -3189,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -3202,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3233,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Cosalá</t>
@@ -3246,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Elota</t>
@@ -3259,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3290,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -3303,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -3316,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3347,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -3360,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3391,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -3404,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -3417,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3448,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -3461,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -3474,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -3487,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Chocamán</t>
@@ -3500,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -3513,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Cosoleacaque</t>
@@ -3526,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -3539,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -3552,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -3565,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -3578,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -3591,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -3604,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Mixtla De Altamirano</t>
@@ -3617,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Naolinco</t>
@@ -3630,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Nautla</t>
@@ -3643,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -3656,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -3669,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Sayula De Alemán</t>
@@ -3682,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Soledad Atzompa</t>
@@ -3695,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -3708,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -3721,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -3734,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -3747,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -3760,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -3773,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3804,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -3817,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -3830,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -3843,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Trinidad García De La Cadena</t>
@@ -3856,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -3869,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -3882,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -3895,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Total</t>
